--- a/Excel/CarPlots.xlsx
+++ b/Excel/CarPlots.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\School\WPI\20-21\21 C\Data vis\Repos\02-DataVis-5Ways-1\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA36133E-3CDF-4885-8915-1A7E1C89860D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9121E3E-5D2F-44D5-A164-4AF69BA44B01}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1245,6 +1245,8 @@
         <c:axId val="475398360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="5000"/>
+          <c:min val="1500"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -1362,6 +1364,8 @@
         <c:axId val="475398688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="48"/>
+          <c:min val="5"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -1474,6 +1478,8 @@
         <c:crossAx val="475398360"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
+        <c:majorUnit val="10"/>
+        <c:minorUnit val="10"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -2441,8 +2447,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C26" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="M28" sqref="M28"/>
+    <sheetView tabSelected="1" topLeftCell="C27" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="Q29" sqref="Q29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Excel/CarPlots.xlsx
+++ b/Excel/CarPlots.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\School\WPI\20-21\21 C\Data vis\Repos\02-DataVis-5Ways-1\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9121E3E-5D2F-44D5-A164-4AF69BA44B01}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C9E2808-A88D-4BBF-82F2-D73740B85800}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1489,37 +1489,6 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:extLst>
@@ -2447,8 +2416,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C27" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="Q29" sqref="Q29"/>
+    <sheetView tabSelected="1" topLeftCell="A14" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="T40" sqref="T40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
